--- a/2020 Supply Order form descruptions.xlsx
+++ b/2020 Supply Order form descruptions.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22421"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="71" documentId="11_D01807B17F899ADCF3F7177F48DCC3E1B8B5E8B8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{80443B5E-5961-4721-8A32-127A13B12FEB}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lsbel\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2F3034-86A3-4A40-9A2F-AFE6D28A53CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27960" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Items" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
-  <si>
-    <t>New Oklahoma Supply Descriptions</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
   <si>
     <t>Air freshener</t>
   </si>
@@ -611,13 +611,19 @@
   </si>
   <si>
     <t> Yard Sign, Shelter PKG/5</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Order</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -634,7 +640,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,7 +669,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -674,6 +684,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3B0EB62-9A97-4277-B5AC-01B88F1268BC}" name="Table1" displayName="Table1" ref="A1:B194" totalsRowShown="0">
+  <autoFilter ref="A1:B194" xr:uid="{64199C8D-A1F6-408D-AFAF-A6E0B2324EAA}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{AADC4E36-709B-4595-BE31-9D81ED615B0C}" name="Item" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{0A3FAD2F-F8E1-4332-8303-C5648425F655}" name="Order"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -999,1186 +1020,1577 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="68.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="B2">
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>10100</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>10200</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>10300</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>10400</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>10500</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>10600</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>10700</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>10800</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>11000</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>11100</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>11120</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>11130</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>11140</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>11150</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>11160</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>11170</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>11180</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>11190</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>11200</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>11210</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>11220</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>11230</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>11240</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>11250</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>11260</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>11270</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>11280</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>11290</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>11300</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>11310</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>11320</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>11330</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>11340</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>11350</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>11360</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>11370</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>11380</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>11390</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>11400</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>11410</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>11420</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>11430</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>11440</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>11450</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="1" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>11460</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="1" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>11470</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="1" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <v>11480</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <v>11490</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>11500</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>11510</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B53">
+      <c r="B54">
         <v>11520</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B54">
+      <c r="B55">
         <v>11530</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="1" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B55">
+      <c r="B56">
         <v>11540</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="1" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B56">
+      <c r="B57">
+        <v>11550</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58">
         <v>11560</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59">
         <v>11570</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60">
         <v>11580</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61">
         <v>11590</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62">
         <v>11600</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63">
         <v>11610</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64">
         <v>11620</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65">
         <v>11630</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66">
         <v>11640</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67">
         <v>11650</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="1" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="1" t="s">
+      <c r="B68">
+        <v>11660</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="1" t="s">
+      <c r="B69">
+        <v>11670</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="1" t="s">
+      <c r="B70">
+        <v>11680</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="1" t="s">
+      <c r="B71">
+        <v>11690</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="1" t="s">
+      <c r="B72">
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="1" t="s">
+      <c r="B73">
+        <v>11710</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="1" t="s">
+      <c r="B74">
+        <v>11720</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="1" t="s">
+      <c r="B75">
+        <v>11730</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="1" t="s">
+      <c r="B76">
+        <v>11740</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="1" t="s">
+      <c r="B77">
+        <v>11750</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="1" t="s">
+      <c r="B78">
+        <v>11760</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="1" t="s">
+      <c r="B79">
+        <v>11770</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="1" t="s">
+      <c r="B80">
+        <v>11780</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="1" t="s">
+      <c r="B81">
+        <v>11790</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="1" t="s">
+      <c r="B82">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="1" t="s">
+      <c r="B83">
+        <v>11510</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="1" t="s">
+      <c r="B84">
+        <v>11520</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="1" t="s">
+      <c r="B85">
+        <v>11830</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="1" t="s">
+      <c r="B86">
+        <v>11840</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="1" t="s">
+      <c r="B87">
+        <v>11850</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="1" t="s">
+      <c r="B88">
+        <v>11860</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="1" t="s">
+      <c r="B89">
+        <v>11870</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="1" t="s">
+      <c r="B90">
+        <v>11880</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="1" t="s">
+      <c r="B91">
+        <v>11890</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="1" t="s">
+      <c r="B92">
+        <v>11900</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="1" t="s">
+      <c r="B93">
+        <v>11910</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="1" t="s">
+      <c r="B94">
+        <v>11920</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="1" t="s">
+      <c r="B95">
+        <v>11930</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="1" t="s">
+      <c r="B96">
+        <v>11940</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="1" t="s">
+      <c r="B97">
+        <v>11950</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="1" t="s">
+      <c r="B98">
+        <v>11960</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="1" t="s">
+      <c r="B99">
+        <v>11970</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="1" t="s">
+      <c r="B100">
+        <v>11980</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="1" t="s">
+      <c r="B101">
+        <v>11990</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="1" t="s">
+      <c r="B102">
+        <v>12100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="1" t="s">
+      <c r="B103">
+        <v>12120</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="1" t="s">
+      <c r="B104">
+        <v>12130</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="1" t="s">
+      <c r="B105">
+        <v>12140</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="1" t="s">
+      <c r="B106">
+        <v>12150</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="1" t="s">
+      <c r="B107">
+        <v>12160</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="1" t="s">
+      <c r="B108">
+        <v>12170</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="1" t="s">
+      <c r="B109">
+        <v>12180</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="1" t="s">
+      <c r="B110">
+        <v>12190</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="1" t="s">
+      <c r="B111">
+        <v>12200</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="1" t="s">
+      <c r="B112">
+        <v>12210</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="1" t="s">
+      <c r="B113">
+        <v>12220</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="1" t="s">
+      <c r="B114">
+        <v>12230</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="1" t="s">
+      <c r="B115">
+        <v>12240</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="1" t="s">
+      <c r="B116">
+        <v>12250</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="1" t="s">
+      <c r="B117">
+        <v>12260</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="1" t="s">
+      <c r="B118">
+        <v>12270</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="1" t="s">
+      <c r="B119">
+        <v>12280</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="1" t="s">
+      <c r="B120">
+        <v>12290</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="1" t="s">
+      <c r="B121">
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="1" t="s">
+      <c r="B122">
+        <v>12310</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="1" t="s">
+      <c r="B123">
+        <v>12320</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="1" t="s">
+      <c r="B124">
+        <v>12330</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="1" t="s">
+      <c r="B125">
+        <v>12340</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="1" t="s">
+      <c r="B126">
+        <v>12350</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="1" t="s">
+      <c r="B127">
+        <v>12360</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="1" t="s">
+      <c r="B128">
+        <v>12370</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="1" t="s">
+      <c r="B129">
+        <v>12380</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="1" t="s">
+      <c r="B130">
+        <v>12390</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="1" t="s">
+      <c r="B131">
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="1" t="s">
+      <c r="B132">
+        <v>12410</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="1" t="s">
+      <c r="B133">
+        <v>12420</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="1" t="s">
+      <c r="B134">
+        <v>12430</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" s="1" t="s">
+      <c r="B135">
+        <v>12440</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="1" t="s">
+      <c r="B136">
+        <v>12450</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" s="1" t="s">
+      <c r="B137">
+        <v>12460</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" s="1" t="s">
+      <c r="B138">
+        <v>12470</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="1" t="s">
+      <c r="B139">
+        <v>12480</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" s="1" t="s">
+      <c r="B140">
+        <v>12490</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" s="1" t="s">
+      <c r="B141">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" s="1" t="s">
+      <c r="B142">
+        <v>12510</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" s="1" t="s">
+      <c r="B143">
+        <v>12520</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="1" t="s">
+      <c r="B144">
+        <v>12530</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="1" t="s">
+      <c r="B145">
+        <v>12540</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="1" t="s">
+      <c r="B146">
+        <v>12550</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" s="1" t="s">
+      <c r="B147">
+        <v>12560</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="1" t="s">
+      <c r="B148">
+        <v>12570</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="1" t="s">
+      <c r="B149">
+        <v>12580</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="1" t="s">
+      <c r="B150">
+        <v>12590</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" s="1" t="s">
+      <c r="B151">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" s="1" t="s">
+      <c r="B152">
+        <v>12610</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" s="1" t="s">
+      <c r="B153">
+        <v>12620</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" s="1" t="s">
+      <c r="B154">
+        <v>12630</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" s="1" t="s">
+      <c r="B155">
+        <v>12640</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" s="1" t="s">
+      <c r="B156">
+        <v>12650</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" s="1" t="s">
+      <c r="B157">
+        <v>12660</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" s="1" t="s">
+      <c r="B158">
+        <v>12670</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" s="1" t="s">
+      <c r="B159">
+        <v>12680</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" s="1" t="s">
+      <c r="B160">
+        <v>12690</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" s="1" t="s">
+      <c r="B161">
+        <v>12700</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" s="1" t="s">
+      <c r="B162">
+        <v>12710</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="1" t="s">
+      <c r="B163">
+        <v>12720</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="1" t="s">
+      <c r="B164">
+        <v>12730</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" s="1" t="s">
+      <c r="B165">
+        <v>12740</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" s="1" t="s">
+      <c r="B166">
+        <v>12750</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" s="1" t="s">
+      <c r="B167">
+        <v>12760</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" s="1" t="s">
+      <c r="B168">
+        <v>12770</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" s="1" t="s">
+      <c r="B169">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" s="1" t="s">
+      <c r="B170">
+        <v>12810</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" s="1" t="s">
+      <c r="B171">
+        <v>12820</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" s="1" t="s">
+      <c r="B172">
+        <v>12830</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" s="1" t="s">
+      <c r="B173">
+        <v>12840</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" s="1" t="s">
+      <c r="B174">
+        <v>12850</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" s="1" t="s">
+      <c r="B175">
+        <v>12860</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" s="1" t="s">
+      <c r="B176">
+        <v>12870</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" s="1" t="s">
+      <c r="B177">
+        <v>12880</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" s="1" t="s">
+      <c r="B178">
+        <v>12890</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" s="1" t="s">
+      <c r="B179">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" s="1" t="s">
+      <c r="B180">
+        <v>12910</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" s="1" t="s">
+      <c r="B181">
+        <v>12920</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" s="1" t="s">
+      <c r="B182">
+        <v>12930</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" s="1" t="s">
+      <c r="B183">
+        <v>12940</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" s="1" t="s">
+      <c r="B184">
+        <v>12950</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" s="1" t="s">
+      <c r="B185">
+        <v>12960</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" s="1" t="s">
+      <c r="B186">
+        <v>12970</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" s="1" t="s">
+      <c r="B187">
+        <v>12980</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" s="1" t="s">
+      <c r="B188">
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" s="1" t="s">
+      <c r="B189">
+        <v>13100</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" s="1" t="s">
+      <c r="B190">
+        <v>13110</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" s="1" t="s">
+      <c r="B191">
+        <v>13120</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" s="1" t="s">
+      <c r="B192">
+        <v>13130</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" s="1" t="s">
+      <c r="B193">
+        <v>13140</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
+      <c r="B194">
+        <v>13150</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2188,7 +2600,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2200,7 +2612,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2212,7 +2624,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2224,7 +2636,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
